--- a/data/trans_dic/P1805_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01084998372570404</v>
+        <v>0.01240049338235204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01295825628432013</v>
+        <v>0.01369120201307964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03078695034424992</v>
+        <v>0.03064983093304038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02273286860194922</v>
+        <v>0.02264110928379821</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02545059919906908</v>
+        <v>0.02549042795571803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02200043643552088</v>
+        <v>0.02146074859768483</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03346532263312534</v>
+        <v>0.03426305629640157</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04282629148583276</v>
+        <v>0.04226261526917052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05761770451523087</v>
+        <v>0.05738653243816845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04185502585978392</v>
+        <v>0.0422567538959752</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04284487503895287</v>
+        <v>0.04338117839591702</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03798632671274223</v>
+        <v>0.0380900615112256</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01276916407919362</v>
+        <v>0.0124889967004175</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02579765538611561</v>
+        <v>0.02570597184335603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02814814399248593</v>
+        <v>0.02888646490114427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03282797171274675</v>
+        <v>0.03188350944814927</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02177477608881068</v>
+        <v>0.02231820014144146</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03084708960268683</v>
+        <v>0.03151745797079102</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02448280983190793</v>
+        <v>0.02488390639492796</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04383914080463566</v>
+        <v>0.0439892859642844</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04692781325634159</v>
+        <v>0.04704476037725081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04930573856917701</v>
+        <v>0.04830358964215181</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03237135162526519</v>
+        <v>0.03328502754091376</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04341439611102915</v>
+        <v>0.04392488632416112</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.02138072061926618</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05010050290770892</v>
+        <v>0.05010050290770891</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00701233936895418</v>
+        <v>0.007113952900844285</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02463424772814948</v>
+        <v>0.02524047847745211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01586519774469985</v>
+        <v>0.01613166059177654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04681183135708895</v>
+        <v>0.04643080702673311</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01392091463300653</v>
+        <v>0.01420985341389986</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03823155324513917</v>
+        <v>0.03917068587439188</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02898599608208935</v>
+        <v>0.03063278646971263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05810602905247587</v>
+        <v>0.0591369883815128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04488719605263881</v>
+        <v>0.04326715381102875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08146167494237219</v>
+        <v>0.08083013076250185</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03120471217556848</v>
+        <v>0.03094372251486107</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06246225843141738</v>
+        <v>0.06270992515087631</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01390042741818014</v>
+        <v>0.01414678501228876</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0262174352846939</v>
+        <v>0.02669822706794977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03152833772155774</v>
+        <v>0.03123860593244765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03648929388884443</v>
+        <v>0.03658597672110572</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02369772608790411</v>
+        <v>0.0239819479895717</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03355899024586463</v>
+        <v>0.03325795072332344</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02291376114946639</v>
+        <v>0.02355870578768127</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0411482584281786</v>
+        <v>0.04226754904111276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04464440778529503</v>
+        <v>0.0449359067515163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04877723335658675</v>
+        <v>0.04898211944999706</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03164633100134156</v>
+        <v>0.03239672219049771</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04298163645864327</v>
+        <v>0.04290069038446493</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8185</v>
+        <v>9354</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7497</v>
+        <v>7921</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30623</v>
+        <v>30486</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18674</v>
+        <v>18598</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>44513</v>
+        <v>44583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30800</v>
+        <v>30044</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25244</v>
+        <v>25846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24776</v>
+        <v>24450</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57310</v>
+        <v>57080</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34381</v>
+        <v>34711</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74936</v>
+        <v>75874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53180</v>
+        <v>53325</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26514</v>
+        <v>25932</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>57543</v>
+        <v>57339</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>55967</v>
+        <v>57435</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>71260</v>
+        <v>69210</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>88508</v>
+        <v>90716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>135766</v>
+        <v>138717</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50836</v>
+        <v>51669</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97786</v>
+        <v>98121</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93307</v>
+        <v>93539</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107028</v>
+        <v>104853</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>131579</v>
+        <v>135293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>191079</v>
+        <v>193325</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3835</v>
+        <v>3891</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17529</v>
+        <v>17961</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8712</v>
+        <v>8859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>34401</v>
+        <v>34121</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15258</v>
+        <v>15574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>55301</v>
+        <v>56659</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15852</v>
+        <v>16753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41347</v>
+        <v>42081</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24649</v>
+        <v>23760</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>59864</v>
+        <v>59400</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34201</v>
+        <v>33915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90349</v>
+        <v>90708</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46950</v>
+        <v>47782</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>92303</v>
+        <v>93996</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>111361</v>
+        <v>110338</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>135997</v>
+        <v>136357</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>163745</v>
+        <v>165708</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>243226</v>
+        <v>241044</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77394</v>
+        <v>79572</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>144870</v>
+        <v>148811</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157689</v>
+        <v>158718</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>181794</v>
+        <v>182558</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>218667</v>
+        <v>223852</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>311518</v>
+        <v>310932</v>
       </c>
     </row>
     <row r="20">
